--- a/docs/StructureDefinition-LocationLE.xlsx
+++ b/docs/StructureDefinition-LocationLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T01:53:31-03:00</t>
+    <t>2023-01-17T23:45:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LocationLE.xlsx
+++ b/docs/StructureDefinition-LocationLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T23:45:39-03:00</t>
+    <t>2023-01-18T13:51:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LocationLE.xlsx
+++ b/docs/StructureDefinition-LocationLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LocationLE.xlsx
+++ b/docs/StructureDefinition-LocationLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:20:48-03:00</t>
+    <t>2023-01-19T11:18:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LocationLE.xlsx
+++ b/docs/StructureDefinition-LocationLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/StructureDefinition/CoreLocalizacionCl</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/StructureDefinition/CoreLocalizacionCl</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1186,7 +1186,7 @@
     <t>Códigos Comuna, Ministerio del Interior, 2018</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/ValueSet/VSCodigosComunaCL</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/ValueSet/VSCodigosComunaCL</t>
   </si>
   <si>
     <t>Address.city</t>
@@ -1217,7 +1217,7 @@
     <t>Códigos Provincia, Ministerio del Interior, 2018</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/ValueSet/VSCodigosProvinciasCL</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/ValueSet/VSCodigosProvinciasCL</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -1242,7 +1242,7 @@
     <t>Códigos Regiones, Ministerio del Interior, 2018</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/ValueSet/VSCodigosRegionesCL</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/ValueSet/VSCodigosRegionesCL</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1282,7 +1282,7 @@
     <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/ValueSet/CodPais</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/ValueSet/CodPais</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-LocationLE.xlsx
+++ b/docs/StructureDefinition-LocationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LocationLE.xlsx
+++ b/docs/StructureDefinition-LocationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LocationLE.xlsx
+++ b/docs/StructureDefinition-LocationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
